--- a/Databases/Database_COAL.xlsx
+++ b/Databases/Database_COAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamet\Documents\Recherche\Banque_Environnement\Contexte_National\BDD_DEF\BDD_ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamet\Documents\Recherche\Banque_Environnement\Contexte_National\ArticleDEF\ENG_version\Article_MI\Article_MI2\Appendices_Institutional_Context_VCD_Banks\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,11 @@
   <sheets>
     <sheet name="Régions" sheetId="2" r:id="rId1"/>
     <sheet name="Base" sheetId="1" r:id="rId2"/>
-    <sheet name="GDP0" sheetId="3" r:id="rId3"/>
-    <sheet name="GDP1" sheetId="4" r:id="rId4"/>
-    <sheet name="ASS0" sheetId="5" r:id="rId5"/>
-    <sheet name="ASS1" sheetId="6" r:id="rId6"/>
+    <sheet name="Ecart-Type" sheetId="7" r:id="rId3"/>
+    <sheet name="GDP0" sheetId="3" r:id="rId4"/>
+    <sheet name="GDP1" sheetId="4" r:id="rId5"/>
+    <sheet name="ASS0" sheetId="5" r:id="rId6"/>
+    <sheet name="ASS1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="281">
   <si>
     <t>Banque</t>
   </si>
@@ -849,6 +850,30 @@
   <si>
     <t>GER</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t>countries with more than 4 banks</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Standard deviation COAL</t>
+  </si>
+  <si>
+    <t>SD Country / SD Sample</t>
+  </si>
+  <si>
+    <t>EPSI</t>
+  </si>
+  <si>
+    <t>WJP</t>
+  </si>
 </sst>
 </file>
 
@@ -1348,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG119"/>
+  <dimension ref="A1:AI119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,10 +1386,11 @@
     <col min="4" max="13" width="10.90625" style="20" customWidth="1"/>
     <col min="14" max="20" width="10.90625" style="19" customWidth="1"/>
     <col min="21" max="26" width="10.90625" style="20" customWidth="1"/>
-    <col min="27" max="16384" width="10.90625" style="19"/>
+    <col min="27" max="33" width="10.90625" style="19" customWidth="1"/>
+    <col min="34" max="16384" width="10.90625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>259</v>
       </c>
@@ -1464,8 +1490,14 @@
       <c r="AG1" s="20" t="s">
         <v>272</v>
       </c>
+      <c r="AH1" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>42</v>
       </c>
@@ -1565,8 +1597,14 @@
       <c r="AG2" s="20">
         <v>0</v>
       </c>
+      <c r="AH2" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="AI2" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
@@ -1666,8 +1704,14 @@
       <c r="AG3" s="20">
         <v>0</v>
       </c>
+      <c r="AH3" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -1767,8 +1811,14 @@
       <c r="AG4" s="20">
         <v>0</v>
       </c>
+      <c r="AH4" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -1868,8 +1918,14 @@
       <c r="AG5" s="20">
         <v>0</v>
       </c>
+      <c r="AH5" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -1969,8 +2025,14 @@
       <c r="AG6" s="20">
         <v>0</v>
       </c>
+      <c r="AH6" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>48</v>
       </c>
@@ -2070,8 +2132,14 @@
       <c r="AG7" s="20">
         <v>1</v>
       </c>
+      <c r="AH7" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -2171,8 +2239,14 @@
       <c r="AG8" s="20">
         <v>1</v>
       </c>
+      <c r="AH8" s="19">
+        <v>3.14</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>51</v>
       </c>
@@ -2272,8 +2346,14 @@
       <c r="AG9" s="20">
         <v>0</v>
       </c>
+      <c r="AH9" s="19">
+        <v>3.22</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -2373,8 +2453,14 @@
       <c r="AG10" s="20">
         <v>0</v>
       </c>
+      <c r="AH10" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="AI10" s="19">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>55</v>
       </c>
@@ -2474,8 +2560,14 @@
       <c r="AG11" s="20">
         <v>0</v>
       </c>
+      <c r="AH11" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="AI11" s="19">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>56</v>
       </c>
@@ -2575,8 +2667,14 @@
       <c r="AG12" s="20">
         <v>0</v>
       </c>
+      <c r="AH12" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="AI12" s="19">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>57</v>
       </c>
@@ -2676,8 +2774,14 @@
       <c r="AG13" s="20">
         <v>0</v>
       </c>
+      <c r="AH13" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="AI13" s="19">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>58</v>
       </c>
@@ -2774,8 +2878,14 @@
       <c r="AG14" s="20">
         <v>0</v>
       </c>
+      <c r="AH14" s="19">
+        <v>2.64</v>
+      </c>
+      <c r="AI14" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>60</v>
       </c>
@@ -2872,8 +2982,14 @@
       <c r="AG15" s="20">
         <v>0</v>
       </c>
+      <c r="AH15" s="19">
+        <v>2.64</v>
+      </c>
+      <c r="AI15" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>61</v>
       </c>
@@ -2970,8 +3086,14 @@
       <c r="AG16" s="20">
         <v>0</v>
       </c>
+      <c r="AH16" s="19">
+        <v>2.64</v>
+      </c>
+      <c r="AI16" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>62</v>
       </c>
@@ -3068,8 +3190,14 @@
       <c r="AG17" s="20">
         <v>0</v>
       </c>
+      <c r="AH17" s="19">
+        <v>2.64</v>
+      </c>
+      <c r="AI17" s="19">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>63</v>
       </c>
@@ -3169,8 +3297,14 @@
       <c r="AG18" s="20">
         <v>1</v>
       </c>
+      <c r="AH18" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI18" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>65</v>
       </c>
@@ -3270,8 +3404,14 @@
       <c r="AG19" s="20">
         <v>1</v>
       </c>
+      <c r="AH19" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI19" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>66</v>
       </c>
@@ -3371,8 +3511,14 @@
       <c r="AG20" s="20">
         <v>1</v>
       </c>
+      <c r="AH20" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI20" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>67</v>
       </c>
@@ -3472,8 +3618,14 @@
       <c r="AG21" s="20">
         <v>1</v>
       </c>
+      <c r="AH21" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI21" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>68</v>
       </c>
@@ -3573,8 +3725,14 @@
       <c r="AG22" s="20">
         <v>1</v>
       </c>
+      <c r="AH22" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI22" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>69</v>
       </c>
@@ -3674,8 +3832,14 @@
       <c r="AG23" s="20">
         <v>1</v>
       </c>
+      <c r="AH23" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI23" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>70</v>
       </c>
@@ -3775,8 +3939,14 @@
       <c r="AG24" s="20">
         <v>1</v>
       </c>
+      <c r="AH24" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI24" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>71</v>
       </c>
@@ -3876,8 +4046,14 @@
       <c r="AG25" s="20">
         <v>1</v>
       </c>
+      <c r="AH25" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI25" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>72</v>
       </c>
@@ -3977,8 +4153,14 @@
       <c r="AG26" s="20">
         <v>1</v>
       </c>
+      <c r="AH26" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI26" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>73</v>
       </c>
@@ -4078,8 +4260,14 @@
       <c r="AG27" s="20">
         <v>1</v>
       </c>
+      <c r="AH27" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI27" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4367,14 @@
       <c r="AG28" s="20">
         <v>1</v>
       </c>
+      <c r="AH28" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI28" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>75</v>
       </c>
@@ -4280,8 +4474,14 @@
       <c r="AG29" s="20">
         <v>1</v>
       </c>
+      <c r="AH29" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI29" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>76</v>
       </c>
@@ -4381,8 +4581,14 @@
       <c r="AG30" s="20">
         <v>1</v>
       </c>
+      <c r="AH30" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI30" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>77</v>
       </c>
@@ -4482,8 +4688,14 @@
       <c r="AG31" s="20">
         <v>1</v>
       </c>
+      <c r="AH31" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI31" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
@@ -4583,8 +4795,14 @@
       <c r="AG32" s="20">
         <v>1</v>
       </c>
+      <c r="AH32" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI32" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
         <v>79</v>
       </c>
@@ -4684,8 +4902,14 @@
       <c r="AG33" s="20">
         <v>1</v>
       </c>
+      <c r="AH33" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="AI33" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
         <v>87</v>
       </c>
@@ -4785,8 +5009,14 @@
       <c r="AG34" s="20">
         <v>0</v>
       </c>
+      <c r="AH34" s="19">
+        <v>3.67</v>
+      </c>
+      <c r="AI34" s="19">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>105</v>
       </c>
@@ -4886,8 +5116,14 @@
       <c r="AG35" s="20">
         <v>0</v>
       </c>
+      <c r="AH35" s="19">
+        <v>3.81</v>
+      </c>
+      <c r="AI35" s="19">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>107</v>
       </c>
@@ -4987,8 +5223,14 @@
       <c r="AG36" s="20">
         <v>0</v>
       </c>
+      <c r="AH36" s="19">
+        <v>3.81</v>
+      </c>
+      <c r="AI36" s="19">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
         <v>108</v>
       </c>
@@ -5088,8 +5330,14 @@
       <c r="AG37" s="20">
         <v>0</v>
       </c>
+      <c r="AH37" s="19">
+        <v>4.72</v>
+      </c>
+      <c r="AI37" s="19">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>110</v>
       </c>
@@ -5189,8 +5437,14 @@
       <c r="AG38" s="20">
         <v>0</v>
       </c>
+      <c r="AH38" s="19">
+        <v>4.72</v>
+      </c>
+      <c r="AI38" s="19">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>111</v>
       </c>
@@ -5290,8 +5544,14 @@
       <c r="AG39" s="20">
         <v>0</v>
       </c>
+      <c r="AH39" s="19">
+        <v>4.72</v>
+      </c>
+      <c r="AI39" s="19">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>112</v>
       </c>
@@ -5391,8 +5651,14 @@
       <c r="AG40" s="20">
         <v>0</v>
       </c>
+      <c r="AH40" s="19">
+        <v>4.72</v>
+      </c>
+      <c r="AI40" s="19">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>113</v>
       </c>
@@ -5492,8 +5758,14 @@
       <c r="AG41" s="20">
         <v>0</v>
       </c>
+      <c r="AH41" s="19">
+        <v>4.72</v>
+      </c>
+      <c r="AI41" s="19">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
         <v>33</v>
       </c>
@@ -5593,8 +5865,14 @@
       <c r="AG42" s="20">
         <v>1</v>
       </c>
+      <c r="AH42" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI42" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
         <v>35</v>
       </c>
@@ -5694,8 +5972,14 @@
       <c r="AG43" s="20">
         <v>1</v>
       </c>
+      <c r="AH43" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI43" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
         <v>36</v>
       </c>
@@ -5795,8 +6079,14 @@
       <c r="AG44" s="20">
         <v>1</v>
       </c>
+      <c r="AH44" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI44" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
         <v>37</v>
       </c>
@@ -5896,8 +6186,14 @@
       <c r="AG45" s="20">
         <v>1</v>
       </c>
+      <c r="AH45" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI45" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>38</v>
       </c>
@@ -5997,8 +6293,14 @@
       <c r="AG46" s="20">
         <v>1</v>
       </c>
+      <c r="AH46" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI46" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>39</v>
       </c>
@@ -6098,8 +6400,14 @@
       <c r="AG47" s="20">
         <v>1</v>
       </c>
+      <c r="AH47" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI47" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>40</v>
       </c>
@@ -6199,8 +6507,14 @@
       <c r="AG48" s="20">
         <v>1</v>
       </c>
+      <c r="AH48" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI48" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>41</v>
       </c>
@@ -6300,8 +6614,14 @@
       <c r="AG49" s="20">
         <v>1</v>
       </c>
+      <c r="AH49" s="19">
+        <v>3.31</v>
+      </c>
+      <c r="AI49" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
         <v>114</v>
       </c>
@@ -6401,8 +6721,14 @@
       <c r="AG50" s="20">
         <v>0</v>
       </c>
+      <c r="AH50" s="19">
+        <v>2.83</v>
+      </c>
+      <c r="AI50" s="19">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>116</v>
       </c>
@@ -6502,8 +6828,14 @@
       <c r="AG51" s="20">
         <v>0</v>
       </c>
+      <c r="AH51" s="19">
+        <v>2.69</v>
+      </c>
+      <c r="AI51" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>118</v>
       </c>
@@ -6603,8 +6935,14 @@
       <c r="AG52" s="20">
         <v>0</v>
       </c>
+      <c r="AH52" s="19">
+        <v>2.69</v>
+      </c>
+      <c r="AI52" s="19">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
         <v>119</v>
       </c>
@@ -6704,8 +7042,14 @@
       <c r="AG53" s="20">
         <v>0</v>
       </c>
+      <c r="AH53" s="19">
+        <v>3.75</v>
+      </c>
+      <c r="AI53" s="19">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
         <v>121</v>
       </c>
@@ -6805,8 +7149,14 @@
       <c r="AG54" s="20">
         <v>0</v>
       </c>
+      <c r="AH54" s="19">
+        <v>3.75</v>
+      </c>
+      <c r="AI54" s="19">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>122</v>
       </c>
@@ -6906,8 +7256,14 @@
       <c r="AG55" s="20">
         <v>1</v>
       </c>
+      <c r="AH55" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI55" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>124</v>
       </c>
@@ -7007,8 +7363,14 @@
       <c r="AG56" s="20">
         <v>1</v>
       </c>
+      <c r="AH56" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI56" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
         <v>125</v>
       </c>
@@ -7108,8 +7470,14 @@
       <c r="AG57" s="20">
         <v>1</v>
       </c>
+      <c r="AH57" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI57" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>126</v>
       </c>
@@ -7209,8 +7577,14 @@
       <c r="AG58" s="20">
         <v>1</v>
       </c>
+      <c r="AH58" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI58" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>127</v>
       </c>
@@ -7310,8 +7684,14 @@
       <c r="AG59" s="20">
         <v>1</v>
       </c>
+      <c r="AH59" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI59" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>128</v>
       </c>
@@ -7411,8 +7791,14 @@
       <c r="AG60" s="20">
         <v>1</v>
       </c>
+      <c r="AH60" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI60" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>129</v>
       </c>
@@ -7512,8 +7898,14 @@
       <c r="AG61" s="20">
         <v>1</v>
       </c>
+      <c r="AH61" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI61" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
         <v>130</v>
       </c>
@@ -7613,8 +8005,14 @@
       <c r="AG62" s="20">
         <v>1</v>
       </c>
+      <c r="AH62" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI62" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
         <v>131</v>
       </c>
@@ -7714,8 +8112,14 @@
       <c r="AG63" s="20">
         <v>1</v>
       </c>
+      <c r="AH63" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI63" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
         <v>132</v>
       </c>
@@ -7815,8 +8219,14 @@
       <c r="AG64" s="20">
         <v>1</v>
       </c>
+      <c r="AH64" s="19">
+        <v>3.76</v>
+      </c>
+      <c r="AI64" s="19">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
         <v>133</v>
       </c>
@@ -7916,8 +8326,11 @@
       <c r="AG65" s="20">
         <v>0</v>
       </c>
+      <c r="AI65" s="19">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
         <v>135</v>
       </c>
@@ -8017,8 +8430,11 @@
       <c r="AG66" s="20">
         <v>0</v>
       </c>
+      <c r="AI66" s="19">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
         <v>140</v>
       </c>
@@ -8118,8 +8534,14 @@
       <c r="AG67" s="20">
         <v>0</v>
       </c>
+      <c r="AH67" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="AI67" s="19">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
         <v>142</v>
       </c>
@@ -8219,8 +8641,14 @@
       <c r="AG68" s="20">
         <v>0</v>
       </c>
+      <c r="AH68" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="AI68" s="19">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
         <v>143</v>
       </c>
@@ -8320,8 +8748,14 @@
       <c r="AG69" s="20">
         <v>0</v>
       </c>
+      <c r="AH69" s="19">
+        <v>3.47</v>
+      </c>
+      <c r="AI69" s="19">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>138</v>
       </c>
@@ -8421,8 +8855,11 @@
       <c r="AG70" s="20">
         <v>0</v>
       </c>
+      <c r="AI70" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>136</v>
       </c>
@@ -8522,8 +8959,14 @@
       <c r="AG71" s="20">
         <v>0</v>
       </c>
+      <c r="AH71" s="19">
+        <v>3.89</v>
+      </c>
+      <c r="AI71" s="19">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
         <v>145</v>
       </c>
@@ -8623,8 +9066,11 @@
       <c r="AG72" s="19">
         <v>0</v>
       </c>
+      <c r="AI72" s="19">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
         <v>147</v>
       </c>
@@ -8724,8 +9170,14 @@
       <c r="AG73" s="20">
         <v>1</v>
       </c>
+      <c r="AH73" s="19">
+        <v>3.42</v>
+      </c>
+      <c r="AI73" s="19">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>149</v>
       </c>
@@ -8825,8 +9277,14 @@
       <c r="AG74" s="20">
         <v>1</v>
       </c>
+      <c r="AH74" s="19">
+        <v>3.42</v>
+      </c>
+      <c r="AI74" s="19">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="20" t="s">
         <v>150</v>
       </c>
@@ -8924,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
         <v>158</v>
       </c>
@@ -9024,8 +9482,14 @@
       <c r="AG76" s="20">
         <v>0</v>
       </c>
+      <c r="AH76" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="AI76" s="19">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
         <v>160</v>
       </c>
@@ -9125,8 +9589,14 @@
       <c r="AG77" s="20">
         <v>0</v>
       </c>
+      <c r="AH77" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="AI77" s="19">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>161</v>
       </c>
@@ -9226,8 +9696,11 @@
       <c r="AG78" s="20">
         <v>0</v>
       </c>
+      <c r="AI78" s="19">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>163</v>
       </c>
@@ -9327,8 +9800,11 @@
       <c r="AG79" s="20">
         <v>0</v>
       </c>
+      <c r="AI79" s="19">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>164</v>
       </c>
@@ -9428,8 +9904,11 @@
       <c r="AG80" s="20">
         <v>0</v>
       </c>
+      <c r="AI80" s="19">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>27</v>
       </c>
@@ -9529,8 +10008,14 @@
       <c r="AG81" s="20">
         <v>0</v>
       </c>
+      <c r="AH81" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="AI81" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
         <v>29</v>
       </c>
@@ -9630,8 +10115,14 @@
       <c r="AG82" s="20">
         <v>0</v>
       </c>
+      <c r="AH82" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="AI82" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="20" t="s">
         <v>30</v>
       </c>
@@ -9731,8 +10222,14 @@
       <c r="AG83" s="20">
         <v>0</v>
       </c>
+      <c r="AH83" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="AI83" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>31</v>
       </c>
@@ -9832,8 +10329,14 @@
       <c r="AG84" s="20">
         <v>0</v>
       </c>
+      <c r="AH84" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="AI84" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>32</v>
       </c>
@@ -9933,8 +10436,14 @@
       <c r="AG85" s="20">
         <v>0</v>
       </c>
+      <c r="AH85" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="AI85" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>80</v>
       </c>
@@ -10031,8 +10540,14 @@
       <c r="AG86" s="20">
         <v>1</v>
       </c>
+      <c r="AH86" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="AI86" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>82</v>
       </c>
@@ -10129,8 +10644,14 @@
       <c r="AG87" s="20">
         <v>1</v>
       </c>
+      <c r="AH87" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="AI87" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="20" t="s">
         <v>83</v>
       </c>
@@ -10227,8 +10748,14 @@
       <c r="AG88" s="20">
         <v>1</v>
       </c>
+      <c r="AH88" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="AI88" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="20" t="s">
         <v>84</v>
       </c>
@@ -10325,8 +10852,14 @@
       <c r="AG89" s="20">
         <v>1</v>
       </c>
+      <c r="AH89" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="AI89" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
         <v>85</v>
       </c>
@@ -10423,8 +10956,14 @@
       <c r="AG90" s="20">
         <v>1</v>
       </c>
+      <c r="AH90" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="AI90" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>86</v>
       </c>
@@ -10521,8 +11060,14 @@
       <c r="AG91" s="20">
         <v>1</v>
       </c>
+      <c r="AH91" s="19">
+        <v>3.17</v>
+      </c>
+      <c r="AI91" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
         <v>89</v>
       </c>
@@ -10622,8 +11167,14 @@
       <c r="AG92" s="20">
         <v>0</v>
       </c>
+      <c r="AH92" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="AI92" s="19">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="20" t="s">
         <v>91</v>
       </c>
@@ -10723,8 +11274,14 @@
       <c r="AG93" s="20">
         <v>0</v>
       </c>
+      <c r="AH93" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="AI93" s="19">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="20" t="s">
         <v>92</v>
       </c>
@@ -10824,8 +11381,14 @@
       <c r="AG94" s="20">
         <v>0</v>
       </c>
+      <c r="AH94" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="AI94" s="19">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="20" t="s">
         <v>93</v>
       </c>
@@ -10925,8 +11488,14 @@
       <c r="AG95" s="20">
         <v>0</v>
       </c>
+      <c r="AH95" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="AI95" s="19">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="20" t="s">
         <v>165</v>
       </c>
@@ -11026,8 +11595,14 @@
       <c r="AG96" s="20">
         <v>0</v>
       </c>
+      <c r="AH96" s="19">
+        <v>3.61</v>
+      </c>
+      <c r="AI96" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="20" t="s">
         <v>167</v>
       </c>
@@ -11127,8 +11702,14 @@
       <c r="AG97" s="20">
         <v>0</v>
       </c>
+      <c r="AH97" s="19">
+        <v>3.61</v>
+      </c>
+      <c r="AI97" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>168</v>
       </c>
@@ -11228,8 +11809,14 @@
       <c r="AG98" s="20">
         <v>0</v>
       </c>
+      <c r="AH98" s="19">
+        <v>3.61</v>
+      </c>
+      <c r="AI98" s="19">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>169</v>
       </c>
@@ -11329,8 +11916,11 @@
       <c r="AG99" s="20">
         <v>1</v>
       </c>
+      <c r="AH99" s="19">
+        <v>4.22</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="20" t="s">
         <v>171</v>
       </c>
@@ -11430,8 +12020,11 @@
       <c r="AG100" s="20">
         <v>1</v>
       </c>
+      <c r="AH100" s="19">
+        <v>4.22</v>
+      </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="20" t="s">
         <v>172</v>
       </c>
@@ -11531,8 +12124,11 @@
       <c r="AG101" s="20">
         <v>1</v>
       </c>
+      <c r="AH101" s="19">
+        <v>4.22</v>
+      </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A102" s="20" t="s">
         <v>173</v>
       </c>
@@ -11632,8 +12228,11 @@
       <c r="AG102" s="20">
         <v>1</v>
       </c>
+      <c r="AH102" s="19">
+        <v>4.22</v>
+      </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A103" s="20" t="s">
         <v>174</v>
       </c>
@@ -11720,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A104" s="20" t="s">
         <v>175</v>
       </c>
@@ -11807,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
         <v>152</v>
       </c>
@@ -11907,8 +12506,14 @@
       <c r="AG105" s="20">
         <v>0</v>
       </c>
+      <c r="AH105" s="19">
+        <v>3.53</v>
+      </c>
+      <c r="AI105" s="19">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A106" s="20" t="s">
         <v>154</v>
       </c>
@@ -12008,8 +12613,14 @@
       <c r="AG106" s="20">
         <v>0</v>
       </c>
+      <c r="AH106" s="19">
+        <v>3.53</v>
+      </c>
+      <c r="AI106" s="19">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A107" s="20" t="s">
         <v>155</v>
       </c>
@@ -12109,8 +12720,14 @@
       <c r="AG107" s="20">
         <v>0</v>
       </c>
+      <c r="AH107" s="19">
+        <v>3.53</v>
+      </c>
+      <c r="AI107" s="19">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -12210,8 +12827,14 @@
       <c r="AG108" s="20">
         <v>0</v>
       </c>
+      <c r="AH108" s="19">
+        <v>3.53</v>
+      </c>
+      <c r="AI108" s="19">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -12311,8 +12934,14 @@
       <c r="AG109" s="20">
         <v>0</v>
       </c>
+      <c r="AH109" s="19">
+        <v>3.53</v>
+      </c>
+      <c r="AI109" s="19">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
         <v>94</v>
       </c>
@@ -12412,8 +13041,14 @@
       <c r="AG110" s="20">
         <v>0</v>
       </c>
+      <c r="AH110" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI110" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A111" s="20" t="s">
         <v>96</v>
       </c>
@@ -12513,8 +13148,14 @@
       <c r="AG111" s="20">
         <v>0</v>
       </c>
+      <c r="AH111" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI111" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A112" s="20" t="s">
         <v>97</v>
       </c>
@@ -12614,8 +13255,14 @@
       <c r="AG112" s="20">
         <v>0</v>
       </c>
+      <c r="AH112" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI112" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A113" s="20" t="s">
         <v>98</v>
       </c>
@@ -12715,8 +13362,14 @@
       <c r="AG113" s="20">
         <v>0</v>
       </c>
+      <c r="AH113" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI113" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A114" s="20" t="s">
         <v>99</v>
       </c>
@@ -12816,8 +13469,14 @@
       <c r="AG114" s="20">
         <v>0</v>
       </c>
+      <c r="AH114" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI114" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>100</v>
       </c>
@@ -12917,8 +13576,14 @@
       <c r="AG115" s="20">
         <v>0</v>
       </c>
+      <c r="AH115" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI115" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A116" s="20" t="s">
         <v>101</v>
       </c>
@@ -13018,8 +13683,14 @@
       <c r="AG116" s="20">
         <v>0</v>
       </c>
+      <c r="AH116" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI116" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
         <v>102</v>
       </c>
@@ -13119,8 +13790,14 @@
       <c r="AG117" s="20">
         <v>0</v>
       </c>
+      <c r="AH117" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI117" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A118" s="20" t="s">
         <v>103</v>
       </c>
@@ -13220,8 +13897,14 @@
       <c r="AG118" s="20">
         <v>0</v>
       </c>
+      <c r="AH118" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI118" s="19">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A119" s="20" t="s">
         <v>104</v>
       </c>
@@ -13320,6 +14003,12 @@
       </c>
       <c r="AG119" s="20">
         <v>0</v>
+      </c>
+      <c r="AH119" s="19">
+        <v>2.92</v>
+      </c>
+      <c r="AI119" s="19">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -13332,6 +14021,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <f>STDEV(Base!D2:D119)</f>
+        <v>10.554687094964308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4">
+        <f>STDEV(Base!D2:D6)</f>
+        <v>3.9370039370059056</v>
+      </c>
+      <c r="D4">
+        <f>C4/$C$3</f>
+        <v>0.37301000982627608</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5">
+        <f>STDEV(Base!D18:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D12" si="0">C5/$C$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <f>STDEV(Base!D37:D41)</f>
+        <v>7.9812279756939546</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.75617854929132267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7">
+        <f>STDEV(Base!D42:D49)</f>
+        <v>2.5071326821120348</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.23753737648065379</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8">
+        <f>STDEV(Base!D55:D64)</f>
+        <v>0.6749485577105524</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6.3947756256324609E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9">
+        <f>STDEV(Base!D81:D85)</f>
+        <v>2.7018512172212592</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.25598591345359023</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10">
+        <f>STDEV(Base!D86:D91)</f>
+        <v>2.5819888974716112</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.24462960145009799</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11">
+        <f>STDEV(Base!D105:D109)</f>
+        <v>5.5856960175075754</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.52921474291478876</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12">
+        <f>STDEV(Base!D110:D119)</f>
+        <v>4.2282121254470875</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.40060042400161611</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV60"/>
   <sheetViews>
@@ -20463,7 +21311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV60"/>
   <sheetViews>
@@ -27617,7 +28465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV60"/>
   <sheetViews>
@@ -34749,7 +35597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV60"/>
   <sheetViews>
